--- a/ArticleManage/main_working_folder/output_folders/Data 68 Parametric Study on Microwave-Assisted/Data68_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 68 Parametric Study on Microwave-Assisted/Data68_all_graphs_excel.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="10min" sheetId="1" r:id="rId1"/>
-    <sheet name="12min" sheetId="2" r:id="rId4"/>
-    <sheet name="450W" sheetId="3" r:id="rId5"/>
-    <sheet name="4min" sheetId="4" r:id="rId6"/>
-    <sheet name="600W" sheetId="5" r:id="rId7"/>
-    <sheet name="6min" sheetId="6" r:id="rId8"/>
-    <sheet name="700W" sheetId="7" r:id="rId9"/>
-    <sheet name="800W" sheetId="8" r:id="rId10"/>
-    <sheet name="8min" sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 4_1 450W  0-1-120-340 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4_1 600W  0-1-120-340 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4_1 700W  0-1-120-340 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4_1 800W  0-1-120-340 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4_2 10min  0-1-120-340 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4_2 12min  0-1-120-340 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 4_2 4min  0-1-120-340 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 4_2 6min  0-1-120-340 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 4_2 8min  0-1-120-340 " sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>10min</t>
+    <t>450W</t>
   </si>
   <si>
     <t>X</t>
@@ -31,25 +31,25 @@
     <t>Y</t>
   </si>
   <si>
-    <t>12min</t>
-  </si>
-  <si>
-    <t>450W</t>
-  </si>
-  <si>
-    <t>4min</t>
-  </si>
-  <si>
     <t>600W</t>
-  </si>
-  <si>
-    <t>6min</t>
   </si>
   <si>
     <t>700W</t>
   </si>
   <si>
     <t>800W</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>12min</t>
+  </si>
+  <si>
+    <t>4min</t>
+  </si>
+  <si>
+    <t>6min</t>
   </si>
   <si>
     <t>8min</t>
@@ -129,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 10min</a:t>
+              <a:t>Izoterma adsorpcji probki 450W z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -188,12 +188,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'10min'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_1 450W  0-1-120-340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'10min'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_1 450W  0-1-120-340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -206,6 +206,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -275,6 +277,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="340"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -439,7 +443,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 12min</a:t>
+              <a:t>Izoterma adsorpcji probki 600W z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -498,12 +502,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'12min'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_1 600W  0-1-120-340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'12min'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_1 600W  0-1-120-340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -516,6 +520,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -585,6 +591,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="340"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -749,7 +757,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 450W</a:t>
+              <a:t>Izoterma adsorpcji probki 700W z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -808,12 +816,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'450W'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_1 700W  0-1-120-340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'450W'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_1 700W  0-1-120-340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -826,6 +834,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -895,6 +905,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="340"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1059,7 +1071,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 4min</a:t>
+              <a:t>Izoterma adsorpcji probki 800W z wykresu 'Figure 4_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1118,12 +1130,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4min'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_1 800W  0-1-120-340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4min'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_1 800W  0-1-120-340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1136,6 +1148,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1205,6 +1219,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="340"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1369,7 +1385,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600W</a:t>
+              <a:t>Izoterma adsorpcji probki 10min z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1428,12 +1444,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'600W'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_2 10min  0-1-120-340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'600W'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_2 10min  0-1-120-340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1446,6 +1462,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1515,6 +1533,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="340"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1679,7 +1699,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 6min</a:t>
+              <a:t>Izoterma adsorpcji probki 12min z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1738,12 +1758,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6min'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_2 12min  0-1-120-340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6min'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_2 12min  0-1-120-340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1756,6 +1776,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1825,6 +1847,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="340"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1989,7 +2013,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 700W</a:t>
+              <a:t>Izoterma adsorpcji probki 4min z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2048,12 +2072,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'700W'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_2 4min  0-1-120-340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'700W'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_2 4min  0-1-120-340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2066,6 +2090,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2135,6 +2161,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="340"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2299,7 +2327,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800W</a:t>
+              <a:t>Izoterma adsorpcji probki 6min z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2358,12 +2386,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800W'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_2 6min  0-1-120-340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800W'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_2 6min  0-1-120-340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2376,6 +2404,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2445,6 +2475,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="340"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2609,7 +2641,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 8min</a:t>
+              <a:t>Izoterma adsorpcji probki 8min z wykresu 'Figure 4_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2668,12 +2700,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'8min'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4_2 8min  0-1-120-340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8min'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4_2 8min  0-1-120-340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2686,6 +2718,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2755,6 +2789,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="340"/>
+          <c:min val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8547,6 +8583,1766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B3" s="0">
+        <v>193.3869</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="B4" s="0">
+        <v>201.5919</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="0">
+        <v>205.9718</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B6" s="0">
+        <v>209.2108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>211.2919</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B8" s="0">
+        <v>212.4846</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B9" s="0">
+        <v>213.9703</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B10" s="0">
+        <v>215.0115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B11" s="0">
+        <v>215.8482</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>216.6188</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B13" s="0">
+        <v>216.869</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B14" s="0">
+        <v>217.6793</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B15" s="0">
+        <v>218.1895</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B16" s="0">
+        <v>218.7527</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="0">
+        <v>219.7995</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B18" s="0">
+        <v>219.8073</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B19" s="0">
+        <v>220.3418</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B20" s="0">
+        <v>220.6024</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B21" s="0">
+        <v>220.8564</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="0">
+        <v>221.7948</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B23" s="0">
+        <v>221.663</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B24" s="0">
+        <v>222.1992</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B25" s="0">
+        <v>222.4683</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B26" s="0">
+        <v>222.7275</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="0">
+        <v>223.548</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B28" s="0">
+        <v>223.2587</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B29" s="0">
+        <v>223.505</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B30" s="0">
+        <v>223.8039</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B31" s="0">
+        <v>224.3403</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B32" s="0">
+        <v>224.5631</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B33" s="0">
+        <v>224.5626</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B34" s="0">
+        <v>224.8284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B35" s="0">
+        <v>225.1164</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B36" s="0">
+        <v>225.5213</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B37" s="0">
+        <v>226.183</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B38" s="0">
+        <v>225.8847</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B39" s="0">
+        <v>226.7051</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B40" s="0">
+        <v>226.696</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B41" s="0">
+        <v>227.2693</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B42" s="0">
+        <v>227.7697</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B43" s="0">
+        <v>228.296</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B44" s="0">
+        <v>228.8265</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B45" s="0">
+        <v>228.838</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B46" s="0">
+        <v>229.0714</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B47" s="0">
+        <v>229.9091</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B48" s="0">
+        <v>230.9621</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B49" s="0">
+        <v>232.2812</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B50" s="0">
+        <v>233.8039</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B51" s="0">
+        <v>237.1013</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0292</v>
+      </c>
+      <c r="B52" s="0">
+        <v>198.241</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0104</v>
+      </c>
+      <c r="B53" s="0">
+        <v>187.3433</v>
+      </c>
+    </row>
+    <row r="54"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B3" s="0">
+        <v>207.4214</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="B4" s="0">
+        <v>217.502</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="0">
+        <v>224.4006</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B6" s="0">
+        <v>227.8321</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>230.6513</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B8" s="0">
+        <v>232.5871</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B9" s="0">
+        <v>234.6851</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B10" s="0">
+        <v>235.6519</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B11" s="0">
+        <v>237.0652</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>237.8063</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B13" s="0">
+        <v>238.3731</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B14" s="0">
+        <v>239.4571</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B15" s="0">
+        <v>240.0955</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B16" s="0">
+        <v>240.776</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="0">
+        <v>242.145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B18" s="0">
+        <v>242.1059</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B19" s="0">
+        <v>242.6197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B20" s="0">
+        <v>243.1481</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B21" s="0">
+        <v>244.0983</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="0">
+        <v>245.0261</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B23" s="0">
+        <v>245.1617</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B24" s="0">
+        <v>245.1963</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B25" s="0">
+        <v>245.546</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B26" s="0">
+        <v>245.8195</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="0">
+        <v>246.7743</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B28" s="0">
+        <v>246.8822</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B29" s="0">
+        <v>247.4387</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B30" s="0">
+        <v>247.6775</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B31" s="0">
+        <v>247.9428</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B32" s="0">
+        <v>248.6092</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B33" s="0">
+        <v>248.7182</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B34" s="0">
+        <v>249.2108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B35" s="0">
+        <v>249.5371</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B36" s="0">
+        <v>249.944</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B37" s="0">
+        <v>250.5751</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B38" s="0">
+        <v>250.5974</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B39" s="0">
+        <v>251.6152</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B40" s="0">
+        <v>251.6605</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B41" s="0">
+        <v>252.1945</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B42" s="0">
+        <v>252.7376</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B43" s="0">
+        <v>253.5075</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B44" s="0">
+        <v>254.5339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B45" s="0">
+        <v>254.559</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B46" s="0">
+        <v>254.8869</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B47" s="0">
+        <v>255.8632</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B48" s="0">
+        <v>257.8471</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B49" s="0">
+        <v>258.8273</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B50" s="0">
+        <v>260.159</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B51" s="0">
+        <v>262.8598</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0282</v>
+      </c>
+      <c r="B52" s="0">
+        <v>214.2763</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0104</v>
+      </c>
+      <c r="B53" s="0">
+        <v>201.454</v>
+      </c>
+    </row>
+    <row r="54"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B3" s="0">
+        <v>272.7575</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B4" s="0">
+        <v>277.7122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>281.9139</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B6" s="0">
+        <v>285.1057</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B7" s="0">
+        <v>287.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B8" s="0">
+        <v>289.6684</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B9" s="0">
+        <v>291.3128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>292.6442</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B11" s="0">
+        <v>293.6767</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B12" s="0">
+        <v>294.8358</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B13" s="0">
+        <v>295.9577</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B14" s="0">
+        <v>296.8801</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B15" s="0">
+        <v>297.6904</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B16" s="0">
+        <v>298.617</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B17" s="0">
+        <v>299.6077</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B18" s="0">
+        <v>300.1091</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B19" s="0">
+        <v>300.5865</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B20" s="0">
+        <v>301.1717</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B21" s="0">
+        <v>301.7084</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B22" s="0">
+        <v>302.4608</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B23" s="0">
+        <v>303.1615</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B24" s="0">
+        <v>303.7369</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="0">
+        <v>304.263</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B26" s="0">
+        <v>304.8415</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B27" s="0">
+        <v>305.5038</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B28" s="0">
+        <v>306.0019</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B29" s="0">
+        <v>306.2622</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B30" s="0">
+        <v>307.0119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B31" s="0">
+        <v>307.9087</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B32" s="0">
+        <v>307.9753</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B33" s="0">
+        <v>307.9369</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B34" s="0">
+        <v>308.3475</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B35" s="0">
+        <v>308.8794</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B36" s="0">
+        <v>309.3839</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B37" s="0">
+        <v>309.9267</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B38" s="0">
+        <v>310.5295</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B39" s="0">
+        <v>311.13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B40" s="0">
+        <v>311.7022</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B41" s="0">
+        <v>312.5817</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B42" s="0">
+        <v>313.64</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B43" s="0">
+        <v>314.6143</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B44" s="0">
+        <v>315.2031</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B45" s="0">
+        <v>315.8881</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B46" s="0">
+        <v>317.2237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B47" s="0">
+        <v>318.8822</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B48" s="0">
+        <v>320.7308</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B49" s="0">
+        <v>323.7374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0324</v>
+      </c>
+      <c r="B50" s="0">
+        <v>261.4179</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0104</v>
+      </c>
+      <c r="B51" s="0">
+        <v>241.5415</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0084</v>
+      </c>
+      <c r="B52" s="0">
+        <v>229.997</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.0084</v>
+      </c>
+      <c r="B53" s="0">
+        <v>214.2827</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.0073</v>
+      </c>
+      <c r="B54" s="0">
+        <v>196.0032</v>
+      </c>
+    </row>
+    <row r="55"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B3" s="0">
+        <v>247.0281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>250.6623</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B5" s="0">
+        <v>253.9599</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B6" s="0">
+        <v>256.9285</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B7" s="0">
+        <v>259.3698</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B8" s="0">
+        <v>261.0431</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B9" s="0">
+        <v>262.5505</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B10" s="0">
+        <v>263.6199</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B11" s="0">
+        <v>264.7187</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B12" s="0">
+        <v>266.0076</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B13" s="0">
+        <v>267.202</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B14" s="0">
+        <v>268.4195</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B15" s="0">
+        <v>269.6262</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B16" s="0">
+        <v>270.4311</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B17" s="0">
+        <v>271.0678</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B18" s="0">
+        <v>271.8242</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B19" s="0">
+        <v>272.5073</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B20" s="0">
+        <v>272.8916</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B21" s="0">
+        <v>273.5375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B22" s="0">
+        <v>274.12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B23" s="0">
+        <v>274.2772</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="0">
+        <v>274.7073</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B25" s="0">
+        <v>275.1694</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B26" s="0">
+        <v>275.7646</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B27" s="0">
+        <v>276.3022</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B28" s="0">
+        <v>276.7558</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B29" s="0">
+        <v>277.2364</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B30" s="0">
+        <v>277.6104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B31" s="0">
+        <v>278.1081</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B32" s="0">
+        <v>278.5512</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B33" s="0">
+        <v>278.9828</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B34" s="0">
+        <v>279.4576</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B35" s="0">
+        <v>280.0095</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B36" s="0">
+        <v>280.5564</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B37" s="0">
+        <v>281.1102</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B38" s="0">
+        <v>281.7597</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B39" s="0">
+        <v>282.2946</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B40" s="0">
+        <v>282.9271</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B41" s="0">
+        <v>283.5642</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B42" s="0">
+        <v>284.0943</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B43" s="0">
+        <v>284.9005</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B44" s="0">
+        <v>286.0858</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B45" s="0">
+        <v>287.5359</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B46" s="0">
+        <v>289.3567</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B47" s="0">
+        <v>291.5231</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0595</v>
+      </c>
+      <c r="B48" s="0">
+        <v>242.4879</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0313</v>
+      </c>
+      <c r="B49" s="0">
+        <v>230.631</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0104</v>
+      </c>
+      <c r="B50" s="0">
+        <v>214.9234</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0209</v>
+      </c>
+      <c r="B51" s="0">
+        <v>222.6169</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.0449</v>
+      </c>
+      <c r="B52" s="0">
+        <v>236.72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.9885</v>
+      </c>
+      <c r="B53" s="0">
+        <v>297.0296</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.9749</v>
+      </c>
+      <c r="B54" s="0">
+        <v>294.1476</v>
+      </c>
+    </row>
+    <row r="55"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8555,7 +10351,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -8973,7 +10769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -8983,7 +10779,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -9393,7 +11189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -9403,7 +11199,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -9416,410 +11212,410 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="B3" s="0">
-        <v>193.3869</v>
+        <v>258.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="B4" s="0">
-        <v>201.5919</v>
+        <v>265.223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="B5" s="0">
-        <v>205.9718</v>
+        <v>269.2329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="B6" s="0">
-        <v>209.2108</v>
+        <v>272.6052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="B7" s="0">
-        <v>211.2919</v>
+        <v>275.3474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="B8" s="0">
-        <v>212.4846</v>
+        <v>277.2394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="B9" s="0">
-        <v>213.9703</v>
+        <v>278.8426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="B10" s="0">
-        <v>215.0115</v>
+        <v>280.6961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="B11" s="0">
-        <v>215.8482</v>
+        <v>281.6417</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="B12" s="0">
-        <v>216.6188</v>
+        <v>283.2263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="B13" s="0">
-        <v>216.869</v>
+        <v>283.7403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="B14" s="0">
-        <v>217.6793</v>
+        <v>284.8573</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="B15" s="0">
-        <v>218.1895</v>
+        <v>285.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="B16" s="0">
-        <v>218.7527</v>
+        <v>285.7309</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="B17" s="0">
-        <v>219.7995</v>
+        <v>287.0746</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="B18" s="0">
-        <v>219.8073</v>
+        <v>288.0223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="B19" s="0">
-        <v>220.3418</v>
+        <v>288.4462</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="B20" s="0">
-        <v>220.6024</v>
+        <v>288.6906</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="B21" s="0">
-        <v>220.8564</v>
+        <v>290.6778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="B22" s="0">
-        <v>221.7948</v>
+        <v>290.6825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="B23" s="0">
-        <v>221.663</v>
+        <v>291.0455</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="B24" s="0">
-        <v>222.1992</v>
+        <v>291.7508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="B25" s="0">
-        <v>222.4683</v>
+        <v>291.4783</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="B26" s="0">
-        <v>222.7275</v>
+        <v>292.3228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="B27" s="0">
-        <v>223.548</v>
+        <v>292.6652</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.56</v>
       </c>
       <c r="B28" s="0">
-        <v>223.2587</v>
+        <v>292.9019</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="B29" s="0">
-        <v>223.505</v>
+        <v>293.4587</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.6</v>
       </c>
       <c r="B30" s="0">
-        <v>223.8039</v>
+        <v>293.6339</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="B31" s="0">
-        <v>224.3403</v>
+        <v>294.3212</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="B32" s="0">
-        <v>224.5631</v>
+        <v>294.5528</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="B33" s="0">
-        <v>224.5626</v>
+        <v>295.1163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="B34" s="0">
-        <v>224.8284</v>
+        <v>295.1087</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="B35" s="0">
-        <v>225.1164</v>
+        <v>295.953</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="B36" s="0">
-        <v>225.5213</v>
+        <v>296.9812</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="B37" s="0">
-        <v>226.183</v>
+        <v>297.0992</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="B38" s="0">
-        <v>225.8847</v>
+        <v>297.3129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="B39" s="0">
-        <v>226.7051</v>
+        <v>297.9027</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="B40" s="0">
-        <v>226.696</v>
+        <v>297.9994</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="B41" s="0">
-        <v>227.2693</v>
+        <v>297.8684</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="B42" s="0">
-        <v>227.7697</v>
+        <v>298.9287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="B43" s="0">
-        <v>228.296</v>
+        <v>299.6663</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="B44" s="0">
-        <v>228.8265</v>
+        <v>301.6033</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="B45" s="0">
-        <v>228.838</v>
+        <v>302.3504</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="B46" s="0">
-        <v>229.0714</v>
+        <v>303.5571</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="B47" s="0">
-        <v>229.9091</v>
+        <v>309.3578</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.92</v>
+        <v>0.0313</v>
       </c>
       <c r="B48" s="0">
-        <v>230.9621</v>
+        <v>254.9245</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.94</v>
+        <v>0.0208</v>
       </c>
       <c r="B49" s="0">
-        <v>232.2812</v>
+        <v>245.6193</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.96</v>
+        <v>0.0135</v>
       </c>
       <c r="B50" s="0">
-        <v>233.8039</v>
+        <v>237.9758</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.98</v>
+        <v>0.399</v>
       </c>
       <c r="B51" s="0">
-        <v>237.1013</v>
+        <v>289.8187</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.0292</v>
+        <v>0.9365</v>
       </c>
       <c r="B52" s="0">
-        <v>198.241</v>
+        <v>304.7734</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.0104</v>
+        <v>0.9583</v>
       </c>
       <c r="B53" s="0">
-        <v>187.3433</v>
+        <v>306.1027</v>
       </c>
     </row>
     <row r="54"/>
@@ -9829,7 +11625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -9839,7 +11635,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -9852,446 +11648,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="B3" s="0">
-        <v>258.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.06</v>
-      </c>
-      <c r="B4" s="0">
-        <v>265.223</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.08</v>
-      </c>
-      <c r="B5" s="0">
-        <v>269.2329</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1</v>
-      </c>
-      <c r="B6" s="0">
-        <v>272.6052</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.12</v>
-      </c>
-      <c r="B7" s="0">
-        <v>275.3474</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B8" s="0">
-        <v>277.2394</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B9" s="0">
-        <v>278.8426</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B10" s="0">
-        <v>280.6961</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B11" s="0">
-        <v>281.6417</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B12" s="0">
-        <v>283.2263</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B13" s="0">
-        <v>283.7403</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B14" s="0">
-        <v>284.8573</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B15" s="0">
-        <v>285.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B16" s="0">
-        <v>285.7309</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B17" s="0">
-        <v>287.0746</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B18" s="0">
-        <v>288.0223</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B19" s="0">
-        <v>288.4462</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B20" s="0">
-        <v>288.6906</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B21" s="0">
-        <v>290.6778</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B22" s="0">
-        <v>290.6825</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B23" s="0">
-        <v>291.0455</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B24" s="0">
-        <v>291.7508</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="0">
-        <v>291.4783</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B26" s="0">
-        <v>292.3228</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B27" s="0">
-        <v>292.6652</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B28" s="0">
-        <v>292.9019</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B29" s="0">
-        <v>293.4587</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B30" s="0">
-        <v>293.6339</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B31" s="0">
-        <v>294.3212</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B32" s="0">
-        <v>294.5528</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B33" s="0">
-        <v>295.1163</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B34" s="0">
-        <v>295.1087</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B35" s="0">
-        <v>295.953</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B36" s="0">
-        <v>296.9812</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B37" s="0">
-        <v>297.0992</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B38" s="0">
-        <v>297.3129</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B39" s="0">
-        <v>297.9027</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B40" s="0">
-        <v>297.9994</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>297.8684</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>298.9287</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>299.6663</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>301.6033</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>302.3504</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>303.5571</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B47" s="0">
-        <v>309.3578</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0313</v>
-      </c>
-      <c r="B48" s="0">
-        <v>254.9245</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0208</v>
-      </c>
-      <c r="B49" s="0">
-        <v>245.6193</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0135</v>
-      </c>
-      <c r="B50" s="0">
-        <v>237.9758</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.399</v>
-      </c>
-      <c r="B51" s="0">
-        <v>289.8187</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9365</v>
-      </c>
-      <c r="B52" s="0">
-        <v>304.7734</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9583</v>
-      </c>
-      <c r="B53" s="0">
-        <v>306.1027</v>
-      </c>
-    </row>
-    <row r="54"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B3" s="0">
-        <v>207.4214</v>
+        <v>252.8273</v>
       </c>
     </row>
     <row r="4">
@@ -10299,7 +11659,7 @@
         <v>0.04</v>
       </c>
       <c r="B4" s="0">
-        <v>217.502</v>
+        <v>266.2546</v>
       </c>
     </row>
     <row r="5">
@@ -10307,7 +11667,7 @@
         <v>0.06</v>
       </c>
       <c r="B5" s="0">
-        <v>224.4006</v>
+        <v>274.3281</v>
       </c>
     </row>
     <row r="6">
@@ -10315,7 +11675,7 @@
         <v>0.08</v>
       </c>
       <c r="B6" s="0">
-        <v>227.8321</v>
+        <v>279.5841</v>
       </c>
     </row>
     <row r="7">
@@ -10323,7 +11683,7 @@
         <v>0.1</v>
       </c>
       <c r="B7" s="0">
-        <v>230.6513</v>
+        <v>283.7301</v>
       </c>
     </row>
     <row r="8">
@@ -10331,7 +11691,7 @@
         <v>0.12</v>
       </c>
       <c r="B8" s="0">
-        <v>232.5871</v>
+        <v>287.0809</v>
       </c>
     </row>
     <row r="9">
@@ -10339,7 +11699,7 @@
         <v>0.14</v>
       </c>
       <c r="B9" s="0">
-        <v>234.6851</v>
+        <v>289.9463</v>
       </c>
     </row>
     <row r="10">
@@ -10347,7 +11707,7 @@
         <v>0.16</v>
       </c>
       <c r="B10" s="0">
-        <v>235.6519</v>
+        <v>291.7985</v>
       </c>
     </row>
     <row r="11">
@@ -10355,7 +11715,7 @@
         <v>0.18</v>
       </c>
       <c r="B11" s="0">
-        <v>237.0652</v>
+        <v>293.3515</v>
       </c>
     </row>
     <row r="12">
@@ -10363,7 +11723,7 @@
         <v>0.2</v>
       </c>
       <c r="B12" s="0">
-        <v>237.8063</v>
+        <v>294.2952</v>
       </c>
     </row>
     <row r="13">
@@ -10371,7 +11731,7 @@
         <v>0.22</v>
       </c>
       <c r="B13" s="0">
-        <v>238.3731</v>
+        <v>295.3749</v>
       </c>
     </row>
     <row r="14">
@@ -10379,7 +11739,7 @@
         <v>0.24</v>
       </c>
       <c r="B14" s="0">
-        <v>239.4571</v>
+        <v>296.7752</v>
       </c>
     </row>
     <row r="15">
@@ -10387,7 +11747,7 @@
         <v>0.26</v>
       </c>
       <c r="B15" s="0">
-        <v>240.0955</v>
+        <v>297.6358</v>
       </c>
     </row>
     <row r="16">
@@ -10395,7 +11755,7 @@
         <v>0.28</v>
       </c>
       <c r="B16" s="0">
-        <v>240.776</v>
+        <v>298.7313</v>
       </c>
     </row>
     <row r="17">
@@ -10403,7 +11763,7 @@
         <v>0.3</v>
       </c>
       <c r="B17" s="0">
-        <v>242.145</v>
+        <v>299.3003</v>
       </c>
     </row>
     <row r="18">
@@ -10411,7 +11771,7 @@
         <v>0.32</v>
       </c>
       <c r="B18" s="0">
-        <v>242.1059</v>
+        <v>300.4046</v>
       </c>
     </row>
     <row r="19">
@@ -10419,7 +11779,7 @@
         <v>0.34</v>
       </c>
       <c r="B19" s="0">
-        <v>242.6197</v>
+        <v>301.504</v>
       </c>
     </row>
     <row r="20">
@@ -10427,7 +11787,7 @@
         <v>0.36</v>
       </c>
       <c r="B20" s="0">
-        <v>243.1481</v>
+        <v>302.0686</v>
       </c>
     </row>
     <row r="21">
@@ -10435,7 +11795,7 @@
         <v>0.38</v>
       </c>
       <c r="B21" s="0">
-        <v>244.0983</v>
+        <v>302.3399</v>
       </c>
     </row>
     <row r="22">
@@ -10443,7 +11803,7 @@
         <v>0.4</v>
       </c>
       <c r="B22" s="0">
-        <v>245.0261</v>
+        <v>302.8577</v>
       </c>
     </row>
     <row r="23">
@@ -10451,7 +11811,7 @@
         <v>0.42</v>
       </c>
       <c r="B23" s="0">
-        <v>245.1617</v>
+        <v>303.4246</v>
       </c>
     </row>
     <row r="24">
@@ -10459,7 +11819,7 @@
         <v>0.44</v>
       </c>
       <c r="B24" s="0">
-        <v>245.1963</v>
+        <v>304.2318</v>
       </c>
     </row>
     <row r="25">
@@ -10467,7 +11827,7 @@
         <v>0.46</v>
       </c>
       <c r="B25" s="0">
-        <v>245.546</v>
+        <v>305.129</v>
       </c>
     </row>
     <row r="26">
@@ -10475,7 +11835,7 @@
         <v>0.48</v>
       </c>
       <c r="B26" s="0">
-        <v>245.8195</v>
+        <v>305.6714</v>
       </c>
     </row>
     <row r="27">
@@ -10483,7 +11843,7 @@
         <v>0.5</v>
       </c>
       <c r="B27" s="0">
-        <v>246.7743</v>
+        <v>305.7555</v>
       </c>
     </row>
     <row r="28">
@@ -10491,7 +11851,7 @@
         <v>0.52</v>
       </c>
       <c r="B28" s="0">
-        <v>246.8822</v>
+        <v>306.9319</v>
       </c>
     </row>
     <row r="29">
@@ -10499,7 +11859,7 @@
         <v>0.54</v>
       </c>
       <c r="B29" s="0">
-        <v>247.4387</v>
+        <v>307.1203</v>
       </c>
     </row>
     <row r="30">
@@ -10507,7 +11867,7 @@
         <v>0.56</v>
       </c>
       <c r="B30" s="0">
-        <v>247.6775</v>
+        <v>307.0613</v>
       </c>
     </row>
     <row r="31">
@@ -10515,7 +11875,7 @@
         <v>0.58</v>
       </c>
       <c r="B31" s="0">
-        <v>247.9428</v>
+        <v>307.7074</v>
       </c>
     </row>
     <row r="32">
@@ -10523,7 +11883,7 @@
         <v>0.6</v>
       </c>
       <c r="B32" s="0">
-        <v>248.6092</v>
+        <v>308.122</v>
       </c>
     </row>
     <row r="33">
@@ -10531,7 +11891,7 @@
         <v>0.62</v>
       </c>
       <c r="B33" s="0">
-        <v>248.7182</v>
+        <v>308.7234</v>
       </c>
     </row>
     <row r="34">
@@ -10539,7 +11899,7 @@
         <v>0.64</v>
       </c>
       <c r="B34" s="0">
-        <v>249.2108</v>
+        <v>309.4982</v>
       </c>
     </row>
     <row r="35">
@@ -10547,7 +11907,7 @@
         <v>0.66</v>
       </c>
       <c r="B35" s="0">
-        <v>249.5371</v>
+        <v>309.8261</v>
       </c>
     </row>
     <row r="36">
@@ -10555,7 +11915,7 @@
         <v>0.68</v>
       </c>
       <c r="B36" s="0">
-        <v>249.944</v>
+        <v>310.1172</v>
       </c>
     </row>
     <row r="37">
@@ -10563,7 +11923,7 @@
         <v>0.7</v>
       </c>
       <c r="B37" s="0">
-        <v>250.5751</v>
+        <v>311.1568</v>
       </c>
     </row>
     <row r="38">
@@ -10571,7 +11931,7 @@
         <v>0.72</v>
       </c>
       <c r="B38" s="0">
-        <v>250.5974</v>
+        <v>311.2292</v>
       </c>
     </row>
     <row r="39">
@@ -10579,7 +11939,7 @@
         <v>0.74</v>
       </c>
       <c r="B39" s="0">
-        <v>251.6152</v>
+        <v>311.6569</v>
       </c>
     </row>
     <row r="40">
@@ -10587,7 +11947,7 @@
         <v>0.76</v>
       </c>
       <c r="B40" s="0">
-        <v>251.6605</v>
+        <v>312.2696</v>
       </c>
     </row>
     <row r="41">
@@ -10595,7 +11955,7 @@
         <v>0.78</v>
       </c>
       <c r="B41" s="0">
-        <v>252.1945</v>
+        <v>312.5866</v>
       </c>
     </row>
     <row r="42">
@@ -10603,7 +11963,7 @@
         <v>0.8</v>
       </c>
       <c r="B42" s="0">
-        <v>252.7376</v>
+        <v>313.9707</v>
       </c>
     </row>
     <row r="43">
@@ -10611,7 +11971,7 @@
         <v>0.82</v>
       </c>
       <c r="B43" s="0">
-        <v>253.5075</v>
+        <v>314.5963</v>
       </c>
     </row>
     <row r="44">
@@ -10619,7 +11979,7 @@
         <v>0.84</v>
       </c>
       <c r="B44" s="0">
-        <v>254.5339</v>
+        <v>315.0151</v>
       </c>
     </row>
     <row r="45">
@@ -10627,7 +11987,7 @@
         <v>0.86</v>
       </c>
       <c r="B45" s="0">
-        <v>254.559</v>
+        <v>315.9672</v>
       </c>
     </row>
     <row r="46">
@@ -10635,7 +11995,7 @@
         <v>0.88</v>
       </c>
       <c r="B46" s="0">
-        <v>254.8869</v>
+        <v>316.7709</v>
       </c>
     </row>
     <row r="47">
@@ -10643,7 +12003,7 @@
         <v>0.9</v>
       </c>
       <c r="B47" s="0">
-        <v>255.8632</v>
+        <v>318.1276</v>
       </c>
     </row>
     <row r="48">
@@ -10651,7 +12011,7 @@
         <v>0.92</v>
       </c>
       <c r="B48" s="0">
-        <v>257.8471</v>
+        <v>319.0508</v>
       </c>
     </row>
     <row r="49">
@@ -10659,7 +12019,7 @@
         <v>0.94</v>
       </c>
       <c r="B49" s="0">
-        <v>258.8273</v>
+        <v>319.8577</v>
       </c>
     </row>
     <row r="50">
@@ -10667,7 +12027,7 @@
         <v>0.96</v>
       </c>
       <c r="B50" s="0">
-        <v>260.159</v>
+        <v>322.641</v>
       </c>
     </row>
     <row r="51">
@@ -10675,442 +12035,6 @@
         <v>0.98</v>
       </c>
       <c r="B51" s="0">
-        <v>262.8598</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0282</v>
-      </c>
-      <c r="B52" s="0">
-        <v>214.2763</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B53" s="0">
-        <v>201.454</v>
-      </c>
-    </row>
-    <row r="54"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B3" s="0">
-        <v>252.8273</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.04</v>
-      </c>
-      <c r="B4" s="0">
-        <v>266.2546</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.06</v>
-      </c>
-      <c r="B5" s="0">
-        <v>274.3281</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.08</v>
-      </c>
-      <c r="B6" s="0">
-        <v>279.5841</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="0">
-        <v>283.7301</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.12</v>
-      </c>
-      <c r="B8" s="0">
-        <v>287.0809</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B9" s="0">
-        <v>289.9463</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B10" s="0">
-        <v>291.7985</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B11" s="0">
-        <v>293.3515</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>294.2952</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B13" s="0">
-        <v>295.3749</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B14" s="0">
-        <v>296.7752</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B15" s="0">
-        <v>297.6358</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B16" s="0">
-        <v>298.7313</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B17" s="0">
-        <v>299.3003</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B18" s="0">
-        <v>300.4046</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B19" s="0">
-        <v>301.504</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B20" s="0">
-        <v>302.0686</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B21" s="0">
-        <v>302.3399</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B22" s="0">
-        <v>302.8577</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B23" s="0">
-        <v>303.4246</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B24" s="0">
-        <v>304.2318</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B25" s="0">
-        <v>305.129</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B26" s="0">
-        <v>305.6714</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B27" s="0">
-        <v>305.7555</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B28" s="0">
-        <v>306.9319</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B29" s="0">
-        <v>307.1203</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B30" s="0">
-        <v>307.0613</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>307.7074</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>308.122</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>308.7234</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>309.4982</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>309.8261</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>310.1172</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>311.1568</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>311.2292</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>311.6569</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>312.2696</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>312.5866</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>313.9707</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>314.5963</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>315.0151</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>315.9672</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>316.7709</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>318.1276</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>319.0508</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>319.8577</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>322.641</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
         <v>326.0667</v>
       </c>
     </row>
@@ -11131,894 +12055,6 @@
       </c>
     </row>
     <row r="54"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.06</v>
-      </c>
-      <c r="B3" s="0">
-        <v>272.7575</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.08</v>
-      </c>
-      <c r="B4" s="0">
-        <v>277.7122</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>281.9139</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.12</v>
-      </c>
-      <c r="B6" s="0">
-        <v>285.1057</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B7" s="0">
-        <v>287.63</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B8" s="0">
-        <v>289.6684</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B9" s="0">
-        <v>291.3128</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B10" s="0">
-        <v>292.6442</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B11" s="0">
-        <v>293.6767</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B12" s="0">
-        <v>294.8358</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B13" s="0">
-        <v>295.9577</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B14" s="0">
-        <v>296.8801</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B15" s="0">
-        <v>297.6904</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B16" s="0">
-        <v>298.617</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B17" s="0">
-        <v>299.6077</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B18" s="0">
-        <v>300.1091</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B19" s="0">
-        <v>300.5865</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B20" s="0">
-        <v>301.1717</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B21" s="0">
-        <v>301.7084</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B22" s="0">
-        <v>302.4608</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B23" s="0">
-        <v>303.1615</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B24" s="0">
-        <v>303.7369</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="0">
-        <v>304.263</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B26" s="0">
-        <v>304.8415</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B27" s="0">
-        <v>305.5038</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B28" s="0">
-        <v>306.0019</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B29" s="0">
-        <v>306.2622</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B30" s="0">
-        <v>307.0119</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B31" s="0">
-        <v>307.9087</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B32" s="0">
-        <v>307.9753</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B33" s="0">
-        <v>307.9369</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B34" s="0">
-        <v>308.3475</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B35" s="0">
-        <v>308.8794</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B36" s="0">
-        <v>309.3839</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B37" s="0">
-        <v>309.9267</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B38" s="0">
-        <v>310.5295</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B39" s="0">
-        <v>311.13</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B40" s="0">
-        <v>311.7022</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>312.5817</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>313.64</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>314.6143</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>315.2031</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>315.8881</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>317.2237</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>318.8822</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>320.7308</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B49" s="0">
-        <v>323.7374</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0324</v>
-      </c>
-      <c r="B50" s="0">
-        <v>261.4179</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B51" s="0">
-        <v>241.5415</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0084</v>
-      </c>
-      <c r="B52" s="0">
-        <v>229.997</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0084</v>
-      </c>
-      <c r="B53" s="0">
-        <v>214.2827</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0073</v>
-      </c>
-      <c r="B54" s="0">
-        <v>196.0032</v>
-      </c>
-    </row>
-    <row r="55"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.08</v>
-      </c>
-      <c r="B3" s="0">
-        <v>247.0281</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.1</v>
-      </c>
-      <c r="B4" s="0">
-        <v>250.6623</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.12</v>
-      </c>
-      <c r="B5" s="0">
-        <v>253.9599</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B6" s="0">
-        <v>256.9285</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B7" s="0">
-        <v>259.3698</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B8" s="0">
-        <v>261.0431</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B9" s="0">
-        <v>262.5505</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B10" s="0">
-        <v>263.6199</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B11" s="0">
-        <v>264.7187</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B12" s="0">
-        <v>266.0076</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B13" s="0">
-        <v>267.202</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B14" s="0">
-        <v>268.4195</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B15" s="0">
-        <v>269.6262</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B16" s="0">
-        <v>270.4311</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B17" s="0">
-        <v>271.0678</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B18" s="0">
-        <v>271.8242</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B19" s="0">
-        <v>272.5073</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B20" s="0">
-        <v>272.8916</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B21" s="0">
-        <v>273.5375</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B22" s="0">
-        <v>274.12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B23" s="0">
-        <v>274.2772</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B24" s="0">
-        <v>274.7073</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B25" s="0">
-        <v>275.1694</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B26" s="0">
-        <v>275.7646</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B27" s="0">
-        <v>276.3022</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B28" s="0">
-        <v>276.7558</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B29" s="0">
-        <v>277.2364</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B30" s="0">
-        <v>277.6104</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B31" s="0">
-        <v>278.1081</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B32" s="0">
-        <v>278.5512</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B33" s="0">
-        <v>278.9828</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B34" s="0">
-        <v>279.4576</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B35" s="0">
-        <v>280.0095</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B36" s="0">
-        <v>280.5564</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B37" s="0">
-        <v>281.1102</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B38" s="0">
-        <v>281.7597</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>282.2946</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>282.9271</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>283.5642</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>284.0943</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>284.9005</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>286.0858</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>287.5359</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>289.3567</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>291.5231</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0595</v>
-      </c>
-      <c r="B48" s="0">
-        <v>242.4879</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0313</v>
-      </c>
-      <c r="B49" s="0">
-        <v>230.631</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B50" s="0">
-        <v>214.9234</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0209</v>
-      </c>
-      <c r="B51" s="0">
-        <v>222.6169</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0449</v>
-      </c>
-      <c r="B52" s="0">
-        <v>236.72</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9885</v>
-      </c>
-      <c r="B53" s="0">
-        <v>297.0296</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9749</v>
-      </c>
-      <c r="B54" s="0">
-        <v>294.1476</v>
-      </c>
-    </row>
-    <row r="55"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 68 Parametric Study on Microwave-Assisted/Data68_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 68 Parametric Study on Microwave-Assisted/Data68_all_graphs_excel.xlsx
@@ -8583,7 +8583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8604,42 +8604,42 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0104</v>
       </c>
       <c r="B3" s="0">
-        <v>193.3869</v>
+        <v>188.6261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0313</v>
       </c>
       <c r="B4" s="0">
-        <v>201.5919</v>
+        <v>199.8438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0574</v>
       </c>
       <c r="B5" s="0">
-        <v>205.9718</v>
+        <v>205.2874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0804</v>
       </c>
       <c r="B6" s="0">
-        <v>209.2108</v>
+        <v>208.487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.1002</v>
       </c>
       <c r="B7" s="0">
-        <v>211.2919</v>
+        <v>210.4048</v>
       </c>
     </row>
     <row r="8">
@@ -8647,370 +8647,274 @@
         <v>0.12</v>
       </c>
       <c r="B8" s="0">
-        <v>212.4846</v>
+        <v>211.6813</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1399</v>
       </c>
       <c r="B9" s="0">
-        <v>213.9703</v>
+        <v>213.2784</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1597</v>
       </c>
       <c r="B10" s="0">
-        <v>215.0115</v>
+        <v>214.5549</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1806</v>
       </c>
       <c r="B11" s="0">
-        <v>215.8482</v>
+        <v>215.5103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.1994</v>
       </c>
       <c r="B12" s="0">
-        <v>216.6188</v>
+        <v>216.1456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2484</v>
       </c>
       <c r="B13" s="0">
-        <v>216.869</v>
+        <v>218.0541</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.2985</v>
       </c>
       <c r="B14" s="0">
-        <v>217.6793</v>
+        <v>219.3208</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.3497</v>
       </c>
       <c r="B15" s="0">
-        <v>218.1895</v>
+        <v>220.5872</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3987</v>
       </c>
       <c r="B16" s="0">
-        <v>218.7527</v>
+        <v>221.5336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.4489</v>
       </c>
       <c r="B17" s="0">
-        <v>219.7995</v>
+        <v>222.4796</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4979</v>
       </c>
       <c r="B18" s="0">
-        <v>219.8073</v>
+        <v>223.1053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.547</v>
       </c>
       <c r="B19" s="0">
-        <v>220.3418</v>
+        <v>223.731</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5971</v>
       </c>
       <c r="B20" s="0">
-        <v>220.6024</v>
+        <v>224.3563</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.6482</v>
       </c>
       <c r="B21" s="0">
-        <v>220.8564</v>
+        <v>224.9813</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6962</v>
       </c>
       <c r="B22" s="0">
-        <v>221.7948</v>
+        <v>225.6073</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.738</v>
       </c>
       <c r="B23" s="0">
-        <v>221.663</v>
+        <v>226.556</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7683</v>
       </c>
       <c r="B24" s="0">
-        <v>222.1992</v>
+        <v>226.867</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.7985</v>
       </c>
       <c r="B25" s="0">
-        <v>222.4683</v>
+        <v>227.178</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8194</v>
       </c>
       <c r="B26" s="0">
-        <v>222.7275</v>
+        <v>227.8127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8382</v>
       </c>
       <c r="B27" s="0">
-        <v>223.548</v>
+        <v>228.1274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8591</v>
       </c>
       <c r="B28" s="0">
-        <v>223.2587</v>
+        <v>228.4414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.8737</v>
       </c>
       <c r="B29" s="0">
-        <v>223.505</v>
+        <v>229.0781</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.8904</v>
       </c>
       <c r="B30" s="0">
-        <v>223.8039</v>
+        <v>229.7141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.9061</v>
       </c>
       <c r="B31" s="0">
-        <v>224.3403</v>
+        <v>230.3505</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9165</v>
       </c>
       <c r="B32" s="0">
-        <v>224.5631</v>
+        <v>230.9885</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.9238</v>
       </c>
       <c r="B33" s="0">
-        <v>224.5626</v>
+        <v>230.9862</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.9322</v>
       </c>
       <c r="B34" s="0">
-        <v>224.8284</v>
+        <v>231.6249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.9426</v>
       </c>
       <c r="B35" s="0">
-        <v>225.1164</v>
+        <v>232.263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.9489</v>
       </c>
       <c r="B36" s="0">
-        <v>225.5213</v>
+        <v>232.9024</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.9562</v>
       </c>
       <c r="B37" s="0">
-        <v>226.183</v>
+        <v>233.2207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.9666</v>
       </c>
       <c r="B38" s="0">
-        <v>225.8847</v>
+        <v>234.5002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.9749</v>
       </c>
       <c r="B39" s="0">
-        <v>226.7051</v>
+        <v>235.7803</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.9823</v>
       </c>
       <c r="B40" s="0">
-        <v>226.696</v>
+        <v>237.0607</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.9875</v>
       </c>
       <c r="B41" s="0">
-        <v>227.2693</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>227.7697</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>228.296</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>228.8265</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>228.838</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>229.0714</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>229.9091</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>230.9621</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>232.2812</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>233.8039</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>237.1013</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0292</v>
-      </c>
-      <c r="B52" s="0">
-        <v>198.241</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B53" s="0">
-        <v>187.3433</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>238.6626</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9019,7 +8923,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9040,413 +8944,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0094</v>
       </c>
       <c r="B3" s="0">
-        <v>207.4214</v>
+        <v>201.4544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0292</v>
       </c>
       <c r="B4" s="0">
-        <v>217.502</v>
+        <v>213.9553</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0574</v>
       </c>
       <c r="B5" s="0">
-        <v>224.4006</v>
+        <v>223.888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0814</v>
       </c>
       <c r="B6" s="0">
-        <v>227.8321</v>
+        <v>227.408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.1013</v>
       </c>
       <c r="B7" s="0">
-        <v>230.6513</v>
+        <v>229.9672</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1221</v>
       </c>
       <c r="B8" s="0">
-        <v>232.5871</v>
+        <v>232.2054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1409</v>
       </c>
       <c r="B9" s="0">
-        <v>234.6851</v>
+        <v>234.1236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1608</v>
       </c>
       <c r="B10" s="0">
-        <v>235.6519</v>
+        <v>235.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1806</v>
       </c>
       <c r="B11" s="0">
-        <v>237.0652</v>
+        <v>236.3557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.2015</v>
       </c>
       <c r="B12" s="0">
-        <v>237.8063</v>
+        <v>237.6318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2484</v>
       </c>
       <c r="B13" s="0">
-        <v>238.3731</v>
+        <v>239.541</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.2996</v>
       </c>
       <c r="B14" s="0">
-        <v>239.4571</v>
+        <v>241.4488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.3497</v>
       </c>
       <c r="B15" s="0">
-        <v>240.0955</v>
+        <v>242.7155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3967</v>
       </c>
       <c r="B16" s="0">
-        <v>240.776</v>
+        <v>243.9832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.4468</v>
       </c>
       <c r="B17" s="0">
-        <v>242.145</v>
+        <v>245.5707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4979</v>
       </c>
       <c r="B18" s="0">
-        <v>242.1059</v>
+        <v>246.5164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5459</v>
       </c>
       <c r="B19" s="0">
-        <v>242.6197</v>
+        <v>247.1424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.596</v>
       </c>
       <c r="B20" s="0">
-        <v>243.1481</v>
+        <v>248.4091</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.6493</v>
       </c>
       <c r="B21" s="0">
-        <v>244.0983</v>
+        <v>249.3541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6962</v>
       </c>
       <c r="B22" s="0">
-        <v>245.0261</v>
+        <v>250.3012</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.738</v>
       </c>
       <c r="B23" s="0">
-        <v>245.1617</v>
+        <v>250.9292</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7693</v>
       </c>
       <c r="B24" s="0">
-        <v>245.1963</v>
+        <v>252.2019</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.7985</v>
       </c>
       <c r="B25" s="0">
-        <v>245.546</v>
+        <v>252.5133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8194</v>
       </c>
       <c r="B26" s="0">
-        <v>245.8195</v>
+        <v>252.8273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8382</v>
       </c>
       <c r="B27" s="0">
-        <v>246.7743</v>
+        <v>253.7833</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8591</v>
       </c>
       <c r="B28" s="0">
-        <v>246.8822</v>
+        <v>254.7387</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.8758</v>
       </c>
       <c r="B29" s="0">
-        <v>247.4387</v>
+        <v>255.0541</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.8883</v>
       </c>
       <c r="B30" s="0">
-        <v>247.6775</v>
+        <v>255.6915</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.904</v>
       </c>
       <c r="B31" s="0">
-        <v>247.9428</v>
+        <v>256.3278</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9154</v>
       </c>
       <c r="B32" s="0">
-        <v>248.6092</v>
+        <v>257.2863</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.9248</v>
       </c>
       <c r="B33" s="0">
-        <v>248.7182</v>
+        <v>257.6039</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.9332</v>
       </c>
       <c r="B34" s="0">
-        <v>249.2108</v>
+        <v>257.922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.9405</v>
       </c>
       <c r="B35" s="0">
-        <v>249.5371</v>
+        <v>258.561</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.9499</v>
       </c>
       <c r="B36" s="0">
-        <v>249.944</v>
+        <v>259.1994</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.9624</v>
       </c>
       <c r="B37" s="0">
-        <v>250.5751</v>
+        <v>260.1575</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.9729</v>
       </c>
       <c r="B38" s="0">
-        <v>250.5974</v>
+        <v>261.1162</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.9802</v>
       </c>
       <c r="B39" s="0">
-        <v>251.6152</v>
+        <v>263.3588</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.9875</v>
       </c>
       <c r="B40" s="0">
-        <v>251.6605</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>252.1945</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>252.7376</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>253.5075</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>254.5339</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>254.559</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>254.8869</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>255.8632</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>257.8471</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>258.8273</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>260.159</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>262.8598</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0282</v>
-      </c>
-      <c r="B52" s="0">
-        <v>214.2763</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B53" s="0">
-        <v>201.454</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>264.6393</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9455,7 +9255,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9476,421 +9276,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.0084</v>
       </c>
       <c r="B3" s="0">
-        <v>272.7575</v>
+        <v>241.2215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.0303</v>
       </c>
       <c r="B4" s="0">
-        <v>277.7122</v>
+        <v>261.0978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.0574</v>
       </c>
       <c r="B5" s="0">
-        <v>281.9139</v>
+        <v>272.6343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.0814</v>
       </c>
       <c r="B6" s="0">
-        <v>285.1057</v>
+        <v>278.0785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.0992</v>
       </c>
       <c r="B7" s="0">
-        <v>287.63</v>
+        <v>282.2419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="B8" s="0">
-        <v>289.6684</v>
+        <v>285.4422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.1409</v>
       </c>
       <c r="B9" s="0">
-        <v>291.3128</v>
+        <v>287.6804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.1597</v>
       </c>
       <c r="B10" s="0">
-        <v>292.6442</v>
+        <v>289.5986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.1806</v>
       </c>
       <c r="B11" s="0">
-        <v>293.6767</v>
+        <v>291.1954</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.1994</v>
       </c>
       <c r="B12" s="0">
-        <v>294.8358</v>
+        <v>292.4722</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.2463</v>
       </c>
       <c r="B13" s="0">
-        <v>295.9577</v>
+        <v>295.6641</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.2996</v>
       </c>
       <c r="B14" s="0">
-        <v>296.8801</v>
+        <v>297.5712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.3319</v>
       </c>
       <c r="B15" s="0">
-        <v>297.6904</v>
+        <v>299.485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.3486</v>
       </c>
       <c r="B16" s="0">
-        <v>298.617</v>
+        <v>299.8004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.3987</v>
       </c>
       <c r="B17" s="0">
-        <v>299.6077</v>
+        <v>300.7464</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.4499</v>
       </c>
       <c r="B18" s="0">
-        <v>300.1091</v>
+        <v>302.6542</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.499</v>
       </c>
       <c r="B19" s="0">
-        <v>300.5865</v>
+        <v>304.242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.548</v>
       </c>
       <c r="B20" s="0">
-        <v>301.1717</v>
+        <v>304.8676</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.5992</v>
       </c>
       <c r="B21" s="0">
-        <v>301.7084</v>
+        <v>306.4547</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.6461</v>
       </c>
       <c r="B22" s="0">
-        <v>302.4608</v>
+        <v>307.4018</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.6983</v>
       </c>
       <c r="B23" s="0">
-        <v>303.1615</v>
+        <v>308.6678</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.739</v>
       </c>
       <c r="B24" s="0">
-        <v>303.7369</v>
+        <v>309.6169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.7683</v>
       </c>
       <c r="B25" s="0">
-        <v>304.263</v>
+        <v>310.2489</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.7985</v>
       </c>
       <c r="B26" s="0">
-        <v>304.8415</v>
+        <v>311.2013</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.8205</v>
       </c>
       <c r="B27" s="0">
-        <v>305.5038</v>
+        <v>311.8357</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.8382</v>
       </c>
       <c r="B28" s="0">
-        <v>306.0019</v>
+        <v>312.4714</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.8591</v>
       </c>
       <c r="B29" s="0">
-        <v>306.2622</v>
+        <v>313.1061</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.8758</v>
       </c>
       <c r="B30" s="0">
-        <v>307.0119</v>
+        <v>314.0628</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.8894</v>
       </c>
       <c r="B31" s="0">
-        <v>307.9087</v>
+        <v>315.0206</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.9029</v>
       </c>
       <c r="B32" s="0">
-        <v>307.9753</v>
+        <v>315.6576</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.66</v>
+        <v>0.9165</v>
       </c>
       <c r="B33" s="0">
-        <v>307.9369</v>
+        <v>316.6154</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.68</v>
+        <v>0.9238</v>
       </c>
       <c r="B34" s="0">
-        <v>308.3475</v>
+        <v>316.9337</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7</v>
+        <v>0.9342</v>
       </c>
       <c r="B35" s="0">
-        <v>308.8794</v>
+        <v>317.5718</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.72</v>
+        <v>0.9436</v>
       </c>
       <c r="B36" s="0">
-        <v>309.3839</v>
+        <v>317.8895</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.74</v>
+        <v>0.9541</v>
       </c>
       <c r="B37" s="0">
-        <v>309.9267</v>
+        <v>318.5275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.76</v>
+        <v>0.9635</v>
       </c>
       <c r="B38" s="0">
-        <v>310.5295</v>
+        <v>320.4487</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.78</v>
+        <v>0.9718</v>
       </c>
       <c r="B39" s="0">
-        <v>311.13</v>
+        <v>322.0495</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8</v>
+        <v>0.9802</v>
       </c>
       <c r="B40" s="0">
-        <v>311.7022</v>
+        <v>323.3296</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.82</v>
+        <v>0.9854</v>
       </c>
       <c r="B41" s="0">
-        <v>312.5817</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>313.64</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>314.6143</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>315.2031</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>315.8881</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>317.2237</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>318.8822</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>320.7308</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B49" s="0">
-        <v>323.7374</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0324</v>
-      </c>
-      <c r="B50" s="0">
-        <v>261.4179</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B51" s="0">
-        <v>241.5415</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0084</v>
-      </c>
-      <c r="B52" s="0">
-        <v>229.997</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0084</v>
-      </c>
-      <c r="B53" s="0">
-        <v>214.2827</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0073</v>
-      </c>
-      <c r="B54" s="0">
-        <v>196.0032</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>325.5729</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9899,7 +9595,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9920,421 +9616,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0104</v>
       </c>
       <c r="B3" s="0">
-        <v>247.0281</v>
+        <v>214.6027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0303</v>
       </c>
       <c r="B4" s="0">
-        <v>250.6623</v>
+        <v>229.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0574</v>
       </c>
       <c r="B5" s="0">
-        <v>253.9599</v>
+        <v>242.1678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0804</v>
       </c>
       <c r="B6" s="0">
-        <v>256.9285</v>
+        <v>246.971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.1002</v>
       </c>
       <c r="B7" s="0">
-        <v>259.3698</v>
+        <v>251.1337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.1211</v>
       </c>
       <c r="B8" s="0">
-        <v>261.0431</v>
+        <v>253.6926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.1399</v>
       </c>
       <c r="B9" s="0">
-        <v>262.5505</v>
+        <v>256.8936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.1618</v>
       </c>
       <c r="B10" s="0">
-        <v>263.6199</v>
+        <v>259.1315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.1795</v>
       </c>
       <c r="B11" s="0">
-        <v>264.7187</v>
+        <v>261.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.2004</v>
       </c>
       <c r="B12" s="0">
-        <v>266.0076</v>
+        <v>262.6468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.2474</v>
       </c>
       <c r="B13" s="0">
-        <v>267.202</v>
+        <v>265.1973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.2996</v>
       </c>
       <c r="B14" s="0">
-        <v>268.4195</v>
+        <v>268.0669</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.3497</v>
       </c>
       <c r="B15" s="0">
-        <v>269.6262</v>
+        <v>269.975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.3977</v>
       </c>
       <c r="B16" s="0">
-        <v>270.4311</v>
+        <v>271.8838</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.4478</v>
       </c>
       <c r="B17" s="0">
-        <v>271.0678</v>
+        <v>273.4712</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.4979</v>
       </c>
       <c r="B18" s="0">
-        <v>271.8242</v>
+        <v>274.7379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.547</v>
       </c>
       <c r="B19" s="0">
-        <v>272.5073</v>
+        <v>276.3257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.5981</v>
       </c>
       <c r="B20" s="0">
-        <v>272.8916</v>
+        <v>277.2714</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.6482</v>
       </c>
       <c r="B21" s="0">
-        <v>273.5375</v>
+        <v>278.2174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.6973</v>
       </c>
       <c r="B22" s="0">
-        <v>274.12</v>
+        <v>279.4845</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.738</v>
       </c>
       <c r="B23" s="0">
-        <v>274.2772</v>
+        <v>280.4335</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.7683</v>
       </c>
       <c r="B24" s="0">
-        <v>274.7073</v>
+        <v>281.0652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.7975</v>
       </c>
       <c r="B25" s="0">
-        <v>275.1694</v>
+        <v>282.018</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.8173</v>
       </c>
       <c r="B26" s="0">
-        <v>275.7646</v>
+        <v>282.9737</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.8372</v>
       </c>
       <c r="B27" s="0">
-        <v>276.3022</v>
+        <v>282.9673</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.858</v>
       </c>
       <c r="B28" s="0">
-        <v>276.7558</v>
+        <v>283.9227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6</v>
+        <v>0.8737</v>
       </c>
       <c r="B29" s="0">
-        <v>277.2364</v>
+        <v>284.8798</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.62</v>
+        <v>0.8894</v>
       </c>
       <c r="B30" s="0">
-        <v>277.6104</v>
+        <v>285.5162</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.64</v>
+        <v>0.904</v>
       </c>
       <c r="B31" s="0">
-        <v>278.1081</v>
+        <v>286.4736</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.66</v>
+        <v>0.9134</v>
       </c>
       <c r="B32" s="0">
-        <v>278.5512</v>
+        <v>287.112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68</v>
+        <v>0.9248</v>
       </c>
       <c r="B33" s="0">
-        <v>278.9828</v>
+        <v>287.7497</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7</v>
+        <v>0.9363</v>
       </c>
       <c r="B34" s="0">
-        <v>279.4576</v>
+        <v>288.7081</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.72</v>
+        <v>0.9499</v>
       </c>
       <c r="B35" s="0">
-        <v>280.0095</v>
+        <v>289.6659</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.74</v>
+        <v>0.9593</v>
       </c>
       <c r="B36" s="0">
-        <v>280.5564</v>
+        <v>290.625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.76</v>
+        <v>0.9676</v>
       </c>
       <c r="B37" s="0">
-        <v>281.1102</v>
+        <v>291.5844</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.78</v>
+        <v>0.976</v>
       </c>
       <c r="B38" s="0">
-        <v>281.7597</v>
+        <v>293.1852</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8</v>
+        <v>0.9823</v>
       </c>
       <c r="B39" s="0">
-        <v>282.2946</v>
+        <v>294.466</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.82</v>
+        <v>0.9875</v>
       </c>
       <c r="B40" s="0">
-        <v>282.9271</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>283.5642</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>284.0943</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>284.9005</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>286.0858</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>287.5359</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>289.3567</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>291.5231</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0595</v>
-      </c>
-      <c r="B48" s="0">
-        <v>242.4879</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0313</v>
-      </c>
-      <c r="B49" s="0">
-        <v>230.631</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B50" s="0">
-        <v>214.9234</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0209</v>
-      </c>
-      <c r="B51" s="0">
-        <v>222.6169</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0449</v>
-      </c>
-      <c r="B52" s="0">
-        <v>236.72</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9885</v>
-      </c>
-      <c r="B53" s="0">
-        <v>297.0296</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9749</v>
-      </c>
-      <c r="B54" s="0">
-        <v>294.1476</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>296.3885</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10343,7 +9927,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10364,405 +9948,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0125</v>
       </c>
       <c r="B3" s="0">
-        <v>209.1856</v>
+        <v>202.4169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0313</v>
       </c>
       <c r="B4" s="0">
-        <v>219.8587</v>
+        <v>218.0363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0615</v>
       </c>
       <c r="B5" s="0">
-        <v>225.9982</v>
+        <v>226.6767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0802</v>
       </c>
       <c r="B6" s="0">
-        <v>229.9291</v>
+        <v>229.6677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.1031</v>
       </c>
       <c r="B7" s="0">
-        <v>232.6045</v>
+        <v>232.6586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1229</v>
       </c>
       <c r="B8" s="0">
-        <v>234.9276</v>
+        <v>234.9849</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1438</v>
       </c>
       <c r="B9" s="0">
-        <v>237.0183</v>
+        <v>236.9789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1635</v>
       </c>
       <c r="B10" s="0">
-        <v>238.6409</v>
+        <v>237.9758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1833</v>
       </c>
       <c r="B11" s="0">
-        <v>239.9098</v>
+        <v>238.9728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.2031</v>
       </c>
       <c r="B12" s="0">
-        <v>241.0353</v>
+        <v>240.6344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2469</v>
       </c>
       <c r="B13" s="0">
-        <v>241.9613</v>
+        <v>243.2931</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.301</v>
       </c>
       <c r="B14" s="0">
-        <v>242.8824</v>
+        <v>244.9547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.351</v>
       </c>
       <c r="B15" s="0">
-        <v>243.6279</v>
+        <v>245.9517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3979</v>
       </c>
       <c r="B16" s="0">
-        <v>244.2026</v>
+        <v>247.281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="B17" s="0">
-        <v>244.7818</v>
+        <v>248.6103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="B18" s="0">
-        <v>245.5395</v>
+        <v>249.2749</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5469</v>
       </c>
       <c r="B19" s="0">
-        <v>246.0645</v>
+        <v>250.2719</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5979</v>
       </c>
       <c r="B20" s="0">
-        <v>246.4637</v>
+        <v>251.2689</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.6469</v>
       </c>
       <c r="B21" s="0">
-        <v>247.0312</v>
+        <v>251.2689</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6969</v>
       </c>
       <c r="B22" s="0">
-        <v>247.5698</v>
+        <v>252.5982</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.7365</v>
       </c>
       <c r="B23" s="0">
-        <v>248.0241</v>
+        <v>253.5952</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7677</v>
       </c>
       <c r="B24" s="0">
-        <v>248.1778</v>
+        <v>254.2598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.7979</v>
       </c>
       <c r="B25" s="0">
-        <v>248.3133</v>
+        <v>254.5921</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8198</v>
       </c>
       <c r="B26" s="0">
-        <v>248.7212</v>
+        <v>254.9245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8385</v>
       </c>
       <c r="B27" s="0">
-        <v>249.1097</v>
+        <v>255.5891</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8594</v>
       </c>
       <c r="B28" s="0">
-        <v>249.3546</v>
+        <v>256.5861</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.874</v>
       </c>
       <c r="B29" s="0">
-        <v>249.764</v>
+        <v>256.5861</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.8885</v>
       </c>
       <c r="B30" s="0">
-        <v>250.5935</v>
+        <v>257.5831</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.9021</v>
       </c>
       <c r="B31" s="0">
-        <v>251.3313</v>
+        <v>257.5831</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9135</v>
       </c>
       <c r="B32" s="0">
-        <v>251.2088</v>
+        <v>258.2477</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.924</v>
       </c>
       <c r="B33" s="0">
-        <v>251.0548</v>
+        <v>258.9124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.9313</v>
       </c>
       <c r="B34" s="0">
-        <v>251.5367</v>
+        <v>258.9124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.9385</v>
       </c>
       <c r="B35" s="0">
-        <v>251.9081</v>
+        <v>259.577</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.9469</v>
       </c>
       <c r="B36" s="0">
-        <v>252.2373</v>
+        <v>260.2417</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.9563</v>
       </c>
       <c r="B37" s="0">
-        <v>252.6605</v>
+        <v>260.9063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.9625</v>
       </c>
       <c r="B38" s="0">
-        <v>253.0284</v>
+        <v>261.9033</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.974</v>
       </c>
       <c r="B39" s="0">
-        <v>253.3189</v>
+        <v>262.9003</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.9854</v>
       </c>
       <c r="B40" s="0">
-        <v>253.677</v>
+        <v>264.5619</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.9896</v>
       </c>
       <c r="B41" s="0">
-        <v>254.2208</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>254.7079</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>255.2783</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>256.0367</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>256.6215</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>257.5057</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>258.5071</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>259.3728</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>260.6262</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>262.36</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9885</v>
-      </c>
-      <c r="B51" s="0">
         <v>265.8912</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.976</v>
-      </c>
-      <c r="B52" s="0">
-        <v>263.565</v>
-      </c>
-    </row>
-    <row r="53"/>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -10771,7 +10267,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10792,397 +10288,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.0125</v>
       </c>
       <c r="B3" s="0">
-        <v>194.0477</v>
+        <v>169.1843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.0302</v>
       </c>
       <c r="B4" s="0">
-        <v>198.5085</v>
+        <v>184.4713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="B5" s="0">
-        <v>202.2306</v>
+        <v>194.7734</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.0802</v>
       </c>
       <c r="B6" s="0">
-        <v>205.1313</v>
+        <v>198.429</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.101</v>
       </c>
       <c r="B7" s="0">
-        <v>207.6636</v>
+        <v>202.4169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.124</v>
       </c>
       <c r="B8" s="0">
-        <v>209.7527</v>
+        <v>205.0755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.1458</v>
       </c>
       <c r="B9" s="0">
-        <v>211.3664</v>
+        <v>207.7341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.1625</v>
       </c>
       <c r="B10" s="0">
-        <v>212.5452</v>
+        <v>209.3958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.1833</v>
       </c>
       <c r="B11" s="0">
-        <v>213.994</v>
+        <v>211.0574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.201</v>
       </c>
       <c r="B12" s="0">
-        <v>215.2592</v>
+        <v>212.3867</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.249</v>
       </c>
       <c r="B13" s="0">
-        <v>215.6644</v>
+        <v>215.3776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="B14" s="0">
-        <v>216.4899</v>
+        <v>218.0363</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.3521</v>
       </c>
       <c r="B15" s="0">
-        <v>217.5094</v>
+        <v>219.3656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.3979</v>
       </c>
       <c r="B16" s="0">
-        <v>218.096</v>
+        <v>220.3625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.4479</v>
       </c>
       <c r="B17" s="0">
-        <v>218.8956</v>
+        <v>222.6888</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.4979</v>
       </c>
       <c r="B18" s="0">
-        <v>219.4321</v>
+        <v>223.6858</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.549</v>
       </c>
       <c r="B19" s="0">
-        <v>220.1148</v>
+        <v>224.6828</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4</v>
+        <v>0.5979</v>
       </c>
       <c r="B20" s="0">
-        <v>220.7093</v>
+        <v>225.6798</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.649</v>
       </c>
       <c r="B21" s="0">
-        <v>221.1435</v>
+        <v>227.0091</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.6979</v>
       </c>
       <c r="B22" s="0">
-        <v>222.1957</v>
+        <v>228.006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.7375</v>
       </c>
       <c r="B23" s="0">
-        <v>222.929</v>
+        <v>228.3384</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.7688</v>
       </c>
       <c r="B24" s="0">
-        <v>222.9891</v>
+        <v>229.3353</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.7979</v>
       </c>
       <c r="B25" s="0">
-        <v>223.2256</v>
+        <v>230.3323</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.8198</v>
       </c>
       <c r="B26" s="0">
-        <v>223.8217</v>
+        <v>230.997</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.8385</v>
       </c>
       <c r="B27" s="0">
-        <v>224.238</v>
+        <v>231.3293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.8594</v>
       </c>
       <c r="B28" s="0">
-        <v>224.5672</v>
+        <v>232.3263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.874</v>
       </c>
       <c r="B29" s="0">
-        <v>224.9876</v>
+        <v>233.3233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.8896</v>
       </c>
       <c r="B30" s="0">
-        <v>225.5627</v>
+        <v>233.9879</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.9031</v>
       </c>
       <c r="B31" s="0">
-        <v>226.043</v>
+        <v>234.9849</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.9146</v>
       </c>
       <c r="B32" s="0">
-        <v>226.4631</v>
+        <v>235.6495</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.66</v>
+        <v>0.925</v>
       </c>
       <c r="B33" s="0">
-        <v>226.8228</v>
+        <v>236.3142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.68</v>
+        <v>0.9375</v>
       </c>
       <c r="B34" s="0">
-        <v>227.2562</v>
+        <v>236.9789</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7</v>
+        <v>0.949</v>
       </c>
       <c r="B35" s="0">
-        <v>227.7077</v>
+        <v>238.3082</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.72</v>
+        <v>0.9583</v>
       </c>
       <c r="B36" s="0">
-        <v>228.2015</v>
+        <v>239.3051</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.74</v>
+        <v>0.9677</v>
       </c>
       <c r="B37" s="0">
-        <v>228.872</v>
+        <v>239.9698</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.76</v>
+        <v>0.976</v>
       </c>
       <c r="B38" s="0">
-        <v>229.4319</v>
+        <v>241.6314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.78</v>
+        <v>0.9833</v>
       </c>
       <c r="B39" s="0">
-        <v>229.8639</v>
+        <v>243.2931</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8</v>
+        <v>0.9885</v>
       </c>
       <c r="B40" s="0">
-        <v>230.4595</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>231.1424</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>231.9048</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>232.7802</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>233.7015</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>234.8786</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>236.384</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>237.9112</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B48" s="0">
-        <v>239.9919</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B49" s="0">
-        <v>242.9847</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0115</v>
-      </c>
-      <c r="B50" s="0">
-        <v>169.1843</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0323</v>
-      </c>
-      <c r="B51" s="0">
-        <v>184.4713</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>244.6224</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -11191,7 +10599,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11212,413 +10620,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.0115</v>
       </c>
       <c r="B3" s="0">
-        <v>258.2</v>
+        <v>238.3082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.0323</v>
       </c>
       <c r="B4" s="0">
-        <v>265.223</v>
+        <v>255.2568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.0625</v>
       </c>
       <c r="B5" s="0">
-        <v>269.2329</v>
+        <v>265.5589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.0802</v>
       </c>
       <c r="B6" s="0">
-        <v>272.6052</v>
+        <v>269.2145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.1021</v>
       </c>
       <c r="B7" s="0">
-        <v>275.3474</v>
+        <v>272.8701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.1219</v>
       </c>
       <c r="B8" s="0">
-        <v>277.2394</v>
+        <v>275.1964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.1438</v>
       </c>
       <c r="B9" s="0">
-        <v>278.8426</v>
+        <v>277.855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.1635</v>
       </c>
       <c r="B10" s="0">
-        <v>280.6961</v>
+        <v>279.1843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.1823</v>
       </c>
       <c r="B11" s="0">
-        <v>281.6417</v>
+        <v>280.8459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.2021</v>
       </c>
       <c r="B12" s="0">
-        <v>283.2263</v>
+        <v>282.1752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.249</v>
       </c>
       <c r="B13" s="0">
-        <v>283.7403</v>
+        <v>284.5015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="B14" s="0">
-        <v>284.8573</v>
+        <v>286.4955</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.3521</v>
       </c>
       <c r="B15" s="0">
-        <v>285.4</v>
+        <v>288.4894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="B16" s="0">
-        <v>285.7309</v>
+        <v>289.4864</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.4479</v>
       </c>
       <c r="B17" s="0">
-        <v>287.0746</v>
+        <v>290.4834</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.499</v>
       </c>
       <c r="B18" s="0">
-        <v>288.0223</v>
+        <v>291.8127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.549</v>
       </c>
       <c r="B19" s="0">
-        <v>288.4462</v>
+        <v>292.8097</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.5979</v>
       </c>
       <c r="B20" s="0">
-        <v>288.6906</v>
+        <v>293.8066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.6479</v>
       </c>
       <c r="B21" s="0">
-        <v>290.6778</v>
+        <v>294.4713</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.699</v>
       </c>
       <c r="B22" s="0">
-        <v>290.6825</v>
+        <v>295.8006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.7385</v>
       </c>
       <c r="B23" s="0">
-        <v>291.0455</v>
+        <v>296.4653</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.7677</v>
       </c>
       <c r="B24" s="0">
-        <v>291.7508</v>
+        <v>297.1299</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.799</v>
       </c>
       <c r="B25" s="0">
-        <v>291.4783</v>
+        <v>297.7946</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.8188</v>
       </c>
       <c r="B26" s="0">
-        <v>292.3228</v>
+        <v>298.4592</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.8385</v>
       </c>
       <c r="B27" s="0">
-        <v>292.6652</v>
+        <v>299.4562</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.8594</v>
       </c>
       <c r="B28" s="0">
-        <v>292.9019</v>
+        <v>300.1208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.8729</v>
       </c>
       <c r="B29" s="0">
-        <v>293.4587</v>
+        <v>300.7855</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.8885</v>
       </c>
       <c r="B30" s="0">
-        <v>293.6339</v>
+        <v>301.4502</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.9021</v>
       </c>
       <c r="B31" s="0">
-        <v>294.3212</v>
+        <v>302.1148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.9146</v>
       </c>
       <c r="B32" s="0">
-        <v>294.5528</v>
+        <v>302.7795</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.66</v>
+        <v>0.925</v>
       </c>
       <c r="B33" s="0">
-        <v>295.1163</v>
+        <v>303.4441</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.68</v>
+        <v>0.9323</v>
       </c>
       <c r="B34" s="0">
-        <v>295.1087</v>
+        <v>303.7764</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7</v>
+        <v>0.9406</v>
       </c>
       <c r="B35" s="0">
-        <v>295.953</v>
+        <v>304.4411</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.72</v>
+        <v>0.951</v>
       </c>
       <c r="B36" s="0">
-        <v>296.9812</v>
+        <v>304.7734</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.74</v>
+        <v>0.9594</v>
       </c>
       <c r="B37" s="0">
-        <v>297.0992</v>
+        <v>305.7704</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.76</v>
+        <v>0.9708</v>
       </c>
       <c r="B38" s="0">
-        <v>297.3129</v>
+        <v>307.0997</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.78</v>
+        <v>0.9771</v>
       </c>
       <c r="B39" s="0">
-        <v>297.9027</v>
+        <v>308.7613</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8</v>
+        <v>0.9833</v>
       </c>
       <c r="B40" s="0">
-        <v>297.9994</v>
+        <v>310.423</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.82</v>
+        <v>0.9896</v>
       </c>
       <c r="B41" s="0">
-        <v>297.8684</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>298.9287</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>299.6663</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>301.6033</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>302.3504</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>303.5571</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B47" s="0">
-        <v>309.3578</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0313</v>
-      </c>
-      <c r="B48" s="0">
-        <v>254.9245</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0208</v>
-      </c>
-      <c r="B49" s="0">
-        <v>245.6193</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0135</v>
-      </c>
-      <c r="B50" s="0">
-        <v>237.9758</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.399</v>
-      </c>
-      <c r="B51" s="0">
-        <v>289.8187</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9365</v>
-      </c>
-      <c r="B52" s="0">
-        <v>304.7734</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9583</v>
-      </c>
-      <c r="B53" s="0">
-        <v>306.1027</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>311.7523</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -11627,7 +10939,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11648,34 +10960,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0115</v>
       </c>
       <c r="B3" s="0">
-        <v>252.8273</v>
+        <v>243.9577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0323</v>
       </c>
       <c r="B4" s="0">
-        <v>266.2546</v>
+        <v>262.9003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0615</v>
       </c>
       <c r="B5" s="0">
-        <v>274.3281</v>
+        <v>274.5317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0813</v>
       </c>
       <c r="B6" s="0">
-        <v>279.5841</v>
+        <v>279.8489</v>
       </c>
     </row>
     <row r="7">
@@ -11683,378 +10995,282 @@
         <v>0.1</v>
       </c>
       <c r="B7" s="0">
-        <v>283.7301</v>
+        <v>284.1692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1229</v>
       </c>
       <c r="B8" s="0">
-        <v>287.0809</v>
+        <v>287.1601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1448</v>
       </c>
       <c r="B9" s="0">
-        <v>289.9463</v>
+        <v>289.8187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1635</v>
       </c>
       <c r="B10" s="0">
-        <v>291.7985</v>
+        <v>291.8127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1833</v>
       </c>
       <c r="B11" s="0">
-        <v>293.3515</v>
+        <v>293.142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.201</v>
       </c>
       <c r="B12" s="0">
-        <v>294.2952</v>
+        <v>294.4713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2479</v>
       </c>
       <c r="B13" s="0">
-        <v>295.3749</v>
+        <v>297.1299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.301</v>
       </c>
       <c r="B14" s="0">
-        <v>296.7752</v>
+        <v>299.7885</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.3333</v>
       </c>
       <c r="B15" s="0">
-        <v>297.6358</v>
+        <v>300.7855</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="B16" s="0">
-        <v>298.7313</v>
+        <v>301.7825</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3969</v>
       </c>
       <c r="B17" s="0">
-        <v>299.3003</v>
+        <v>302.7795</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.451</v>
       </c>
       <c r="B18" s="0">
-        <v>300.4046</v>
+        <v>304.4411</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5021</v>
       </c>
       <c r="B19" s="0">
-        <v>301.504</v>
+        <v>306.435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5479</v>
       </c>
       <c r="B20" s="0">
-        <v>302.0686</v>
+        <v>307.432</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.599</v>
       </c>
       <c r="B21" s="0">
-        <v>302.3399</v>
+        <v>307.7644</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6479</v>
       </c>
       <c r="B22" s="0">
-        <v>302.8577</v>
+        <v>309.0937</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.6979</v>
       </c>
       <c r="B23" s="0">
-        <v>303.4246</v>
+        <v>310.0906</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7365</v>
       </c>
       <c r="B24" s="0">
-        <v>304.2318</v>
+        <v>311.4199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.7688</v>
       </c>
       <c r="B25" s="0">
-        <v>305.129</v>
+        <v>312.0846</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.7979</v>
       </c>
       <c r="B26" s="0">
-        <v>305.6714</v>
+        <v>313.4139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8198</v>
       </c>
       <c r="B27" s="0">
-        <v>305.7555</v>
+        <v>313.7462</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8396</v>
       </c>
       <c r="B28" s="0">
-        <v>306.9319</v>
+        <v>315.0755</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.8594</v>
       </c>
       <c r="B29" s="0">
-        <v>307.1203</v>
+        <v>315.4079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.874</v>
       </c>
       <c r="B30" s="0">
-        <v>307.0613</v>
+        <v>316.0725</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.8875</v>
       </c>
       <c r="B31" s="0">
-        <v>307.7074</v>
+        <v>317.0695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9031</v>
       </c>
       <c r="B32" s="0">
-        <v>308.122</v>
+        <v>317.7341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.9135</v>
       </c>
       <c r="B33" s="0">
-        <v>308.7234</v>
+        <v>318.7311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.925</v>
       </c>
       <c r="B34" s="0">
-        <v>309.4982</v>
+        <v>319.3958</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.9344</v>
       </c>
       <c r="B35" s="0">
-        <v>309.8261</v>
+        <v>320.0604</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.9417</v>
       </c>
       <c r="B36" s="0">
-        <v>310.1172</v>
+        <v>320.7251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.951</v>
       </c>
       <c r="B37" s="0">
-        <v>311.1568</v>
+        <v>321.3897</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.9604</v>
       </c>
       <c r="B38" s="0">
-        <v>311.2292</v>
+        <v>322.0544</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.9688</v>
       </c>
       <c r="B39" s="0">
-        <v>311.6569</v>
+        <v>323.3837</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.9771</v>
       </c>
       <c r="B40" s="0">
-        <v>312.2696</v>
+        <v>324.713</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.9854</v>
       </c>
       <c r="B41" s="0">
-        <v>312.5866</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>313.9707</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>314.5963</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>315.0151</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>315.9672</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>316.7709</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>318.1276</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>319.0508</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>319.8577</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>322.641</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>326.0667</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B52" s="0">
-        <v>243.9577</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0313</v>
-      </c>
-      <c r="B53" s="0">
-        <v>262.568</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>326.7069</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12063,7 +11279,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12084,397 +11300,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0104</v>
       </c>
       <c r="B3" s="0">
-        <v>211.6988</v>
+        <v>202.7492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0302</v>
       </c>
       <c r="B4" s="0">
-        <v>224.6255</v>
+        <v>221.3595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0615</v>
       </c>
       <c r="B5" s="0">
-        <v>233.1265</v>
+        <v>233.3233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0813</v>
       </c>
       <c r="B6" s="0">
-        <v>238.675</v>
+        <v>238.6405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.1021</v>
       </c>
       <c r="B7" s="0">
-        <v>243.1454</v>
+        <v>242.9607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1229</v>
       </c>
       <c r="B8" s="0">
-        <v>246.5364</v>
+        <v>246.284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1438</v>
       </c>
       <c r="B9" s="0">
-        <v>249.2357</v>
+        <v>249.2749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1635</v>
       </c>
       <c r="B10" s="0">
-        <v>251.276</v>
+        <v>251.2689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1833</v>
       </c>
       <c r="B11" s="0">
-        <v>253.0734</v>
+        <v>253.2628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.2031</v>
       </c>
       <c r="B12" s="0">
-        <v>254.8702</v>
+        <v>254.5921</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="B13" s="0">
-        <v>255.9732</v>
+        <v>257.9154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="B14" s="0">
-        <v>257.649</v>
+        <v>260.9063</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.351</v>
       </c>
       <c r="B15" s="0">
-        <v>258.7616</v>
+        <v>263.2326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.399</v>
       </c>
       <c r="B16" s="0">
-        <v>259.8799</v>
+        <v>265.2266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.4479</v>
       </c>
       <c r="B17" s="0">
-        <v>260.7111</v>
+        <v>267.2205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4979</v>
       </c>
       <c r="B18" s="0">
-        <v>262.4468</v>
+        <v>268.2175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5479</v>
       </c>
       <c r="B19" s="0">
-        <v>262.9308</v>
+        <v>269.5468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5979</v>
       </c>
       <c r="B20" s="0">
-        <v>263.2007</v>
+        <v>271.2085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.649</v>
       </c>
       <c r="B21" s="0">
-        <v>264.7063</v>
+        <v>272.2054</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6969</v>
       </c>
       <c r="B22" s="0">
-        <v>265.1709</v>
+        <v>273.8671</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.7385</v>
       </c>
       <c r="B23" s="0">
-        <v>266.4629</v>
+        <v>274.864</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7677</v>
       </c>
       <c r="B24" s="0">
-        <v>266.643</v>
+        <v>275.5287</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.799</v>
       </c>
       <c r="B25" s="0">
-        <v>267.2743</v>
+        <v>276.5257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8188</v>
       </c>
       <c r="B26" s="0">
-        <v>267.6484</v>
+        <v>277.5227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8385</v>
       </c>
       <c r="B27" s="0">
-        <v>268.3849</v>
+        <v>278.1873</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8583</v>
       </c>
       <c r="B28" s="0">
-        <v>268.7574</v>
+        <v>278.852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.8729</v>
       </c>
       <c r="B29" s="0">
-        <v>269.2879</v>
+        <v>279.5166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.8896</v>
       </c>
       <c r="B30" s="0">
-        <v>269.8738</v>
+        <v>280.1813</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.9042</v>
       </c>
       <c r="B31" s="0">
-        <v>270.4237</v>
+        <v>281.1782</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9125</v>
       </c>
       <c r="B32" s="0">
-        <v>271.2706</v>
+        <v>281.8429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.925</v>
       </c>
       <c r="B33" s="0">
-        <v>271.5339</v>
+        <v>282.5076</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.9344</v>
       </c>
       <c r="B34" s="0">
-        <v>272.1134</v>
+        <v>283.1722</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.9438</v>
       </c>
       <c r="B35" s="0">
-        <v>272.6472</v>
+        <v>283.8369</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.951</v>
       </c>
       <c r="B36" s="0">
-        <v>273.1964</v>
+        <v>284.8338</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.9594</v>
       </c>
       <c r="B37" s="0">
-        <v>273.5063</v>
+        <v>285.4985</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.9667</v>
       </c>
       <c r="B38" s="0">
-        <v>274.3186</v>
+        <v>286.1631</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.975</v>
       </c>
       <c r="B39" s="0">
-        <v>275.015</v>
+        <v>287.4924</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.9813</v>
       </c>
       <c r="B40" s="0">
-        <v>275.1785</v>
+        <v>288.4894</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.9875</v>
       </c>
       <c r="B41" s="0">
-        <v>276.6887</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>276.9214</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>278.4918</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>278.8538</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>279.5424</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>280.4193</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>281.0034</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>282.5303</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>284.3122</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>285.8552</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>288.7255</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>289.8187</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 68 Parametric Study on Microwave-Assisted/Data68_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 68 Parametric Study on Microwave-Assisted/Data68_all_graphs_excel.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4_1 450W  0-1-120-340 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4_1 600W  0-1-120-340 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 4_1 700W  0-1-120-340 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 4_1 800W  0-1-120-340 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 4_2 10min  0-1-120-340 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 4_2 12min  0-1-120-340 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 4_2 4min  0-1-120-340 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 4_2 6min  0-1-120-340 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 4_2 8min  0-1-120-340 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 4_1 450W  0&amp;1&amp;120&amp;340 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4_1 600W  0&amp;1&amp;120&amp;340 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4_1 700W  0&amp;1&amp;120&amp;340 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4_1 800W  0&amp;1&amp;120&amp;340 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4_2 10min  0&amp;1&amp;120&amp;340 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4_2 12min  0&amp;1&amp;120&amp;340 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 4_2 4min  0&amp;1&amp;120&amp;340 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 4_2 6min  0&amp;1&amp;120&amp;340 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 4_2 8min  0&amp;1&amp;120&amp;340 " sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -188,12 +188,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_1 450W  0-1-120-340 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_1 450W  0&amp;1&amp;120&amp;340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_1 450W  0-1-120-340 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_1 450W  0&amp;1&amp;120&amp;340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -502,12 +502,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_1 600W  0-1-120-340 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_1 600W  0&amp;1&amp;120&amp;340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_1 600W  0-1-120-340 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_1 600W  0&amp;1&amp;120&amp;340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -816,12 +816,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_1 700W  0-1-120-340 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_1 700W  0&amp;1&amp;120&amp;340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_1 700W  0-1-120-340 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_1 700W  0&amp;1&amp;120&amp;340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1130,12 +1130,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_1 800W  0-1-120-340 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_1 800W  0&amp;1&amp;120&amp;340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_1 800W  0-1-120-340 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_1 800W  0&amp;1&amp;120&amp;340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1444,12 +1444,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_2 10min  0-1-120-340 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 10min  0&amp;1&amp;120&amp;340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_2 10min  0-1-120-340 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 10min  0&amp;1&amp;120&amp;340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1758,12 +1758,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_2 12min  0-1-120-340 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 12min  0&amp;1&amp;120&amp;340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_2 12min  0-1-120-340 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 12min  0&amp;1&amp;120&amp;340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2072,12 +2072,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_2 4min  0-1-120-340 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 4min  0&amp;1&amp;120&amp;340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_2 4min  0-1-120-340 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 4min  0&amp;1&amp;120&amp;340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2386,12 +2386,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_2 6min  0-1-120-340 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 6min  0&amp;1&amp;120&amp;340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_2 6min  0-1-120-340 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 6min  0&amp;1&amp;120&amp;340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2700,12 +2700,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4_2 8min  0-1-120-340 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4_2 8min  0&amp;1&amp;120&amp;340 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4_2 8min  0-1-120-340 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4_2 8min  0&amp;1&amp;120&amp;340 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
